--- a/Planejamento/Backlog SyncHeart.xlsx
+++ b/Planejamento/Backlog SyncHeart.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/matheus_dsouza_sptech_school/Documents/Pesquisa e Inovação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D978D4F-3A56-4C05-8F8A-AF04205F3373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{8D978D4F-3A56-4C05-8F8A-AF04205F3373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5842BA8A-DA40-4F51-A4FD-28D7A11F1CBF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F41B3480-E4A5-43CE-8F0E-6D6D2C7C1C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,87 +36,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
-  <si>
-    <t>Armazenar a captura de dados em Arquivo</t>
-  </si>
-  <si>
-    <t>Capturar os processadores virtuais</t>
-  </si>
-  <si>
-    <t>Capturar de dados de máquina (info. do SO)</t>
-  </si>
-  <si>
-    <t>Capturar dados de máquina via Python</t>
-  </si>
-  <si>
-    <t>Python configurado na EC2</t>
-  </si>
-  <si>
-    <t>Politica de gestão de acessos implementada e documentada</t>
-  </si>
-  <si>
-    <t>Instância provisionada em EC2</t>
-  </si>
-  <si>
-    <t>Executável .jar</t>
-  </si>
-  <si>
-    <t>Lean UX Canvas</t>
-  </si>
-  <si>
-    <t>Lista de Dados Necessários (BD)</t>
-  </si>
-  <si>
-    <t>Histórias de Usuário</t>
-  </si>
-  <si>
-    <t>Site Institucional – Local</t>
-  </si>
-  <si>
-    <t>Backlog + Sprint no Planner</t>
-  </si>
-  <si>
-    <t>Proto-persona</t>
-  </si>
-  <si>
-    <t>Responsividade do Site Institucional</t>
-  </si>
-  <si>
-    <t>Geração de Log</t>
-  </si>
-  <si>
-    <t>Abertura de chamado</t>
-  </si>
-  <si>
-    <t>Notificações Slack</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Telas de cadastro</t>
-  </si>
-  <si>
-    <t>BACKLOG PROJETO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="87">
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL</t>
   </si>
   <si>
     <t>STATUS</t>
   </si>
   <si>
+    <t>Armazenar a captura de dados em Arquivo (CSV)</t>
+  </si>
+  <si>
+    <t>Guilherme Barros</t>
+  </si>
+  <si>
     <t>Concluído</t>
   </si>
   <si>
+    <t>Capturar os processadores virtuais ediscretizar em função do tempo via integral.</t>
+  </si>
+  <si>
+    <t>Capturar informações do S.O. (usuários, processos em execução)</t>
+  </si>
+  <si>
+    <t>Sérgio Santos</t>
+  </si>
+  <si>
+    <t>Capturar dados de máquina através de script Python e da biblioteca psutil</t>
+  </si>
+  <si>
+    <t>Python configurado na EC2 (rodar script Python)</t>
+  </si>
+  <si>
     <t>Em andamento</t>
   </si>
   <si>
+    <t>Política de gestão de acessos do sistema implementada na documentação do projeto</t>
+  </si>
+  <si>
+    <t>Guilherme Silva</t>
+  </si>
+  <si>
+    <t>Criação da máquina virtual em EC2 (AWS)</t>
+  </si>
+  <si>
+    <t>Criação e implementação de arquivo executável .jar</t>
+  </si>
+  <si>
     <t>Pendente</t>
   </si>
   <si>
-    <t>Contexto + Justificativa do Projeto</t>
-  </si>
-  <si>
-    <t>BACKLOG SPRINT 1</t>
+    <t>Criação de um Lean UX Canvas para o projeto</t>
+  </si>
+  <si>
+    <t>Criação da lista de dados necessários para realizar o projeto (Banco de Dados)</t>
+  </si>
+  <si>
+    <t>Matheus Souza</t>
+  </si>
+  <si>
+    <t>Criação de Histórias de Usuário (User Stories) do projeto</t>
+  </si>
+  <si>
+    <t>Criação do Site Institucional do projeto localmente</t>
+  </si>
+  <si>
+    <t>Gabriel Castilho</t>
+  </si>
+  <si>
+    <t>Adição do Backlog da Sprint e Geral no Planner do projeto</t>
+  </si>
+  <si>
+    <t>Criação de duas proto-personas (usuários do sistema) do projeto</t>
+  </si>
+  <si>
+    <t>Definição do Contexto e Justificativa do projeto na documentação</t>
+  </si>
+  <si>
+    <t>Responsividade obrigatória no site Institucional</t>
+  </si>
+  <si>
+    <t>Giovanna Tracinkas</t>
+  </si>
+  <si>
+    <t>Geração de Log da Aplicação para compor chamado</t>
+  </si>
+  <si>
+    <t>Abertura de chamado através do Jira</t>
+  </si>
+  <si>
+    <t>Envio de notificações utilizando Slack</t>
+  </si>
+  <si>
+    <t>Gráficos com indicadores úteis (tela de Dashboard)</t>
+  </si>
+  <si>
+    <t>3 Telas de Cadastros na WEB (Ex: CRUD da seleção de componentes que serão monitorados)</t>
+  </si>
+  <si>
+    <t>PROJECT BACKLOG</t>
+  </si>
+  <si>
+    <t>SPRINT 1 BACKLOG</t>
+  </si>
+  <si>
+    <t>PBL1</t>
+  </si>
+  <si>
+    <t>PBL2</t>
+  </si>
+  <si>
+    <t>PBL3</t>
+  </si>
+  <si>
+    <t>PBL4</t>
+  </si>
+  <si>
+    <t>PBL6</t>
+  </si>
+  <si>
+    <t>PBL5</t>
+  </si>
+  <si>
+    <t>PBL8</t>
+  </si>
+  <si>
+    <t>PBL9</t>
+  </si>
+  <si>
+    <t>PBL10</t>
+  </si>
+  <si>
+    <t>PBL11</t>
+  </si>
+  <si>
+    <t>PBL12</t>
+  </si>
+  <si>
+    <t>PBL13</t>
+  </si>
+  <si>
+    <t>PBL14</t>
+  </si>
+  <si>
+    <t>PBL15</t>
+  </si>
+  <si>
+    <t>PBL16</t>
+  </si>
+  <si>
+    <t>PBL17</t>
+  </si>
+  <si>
+    <t>PBL18</t>
+  </si>
+  <si>
+    <t>PBL19</t>
+  </si>
+  <si>
+    <t>PBL20</t>
+  </si>
+  <si>
+    <t>PBL21</t>
+  </si>
+  <si>
+    <t>PBL22</t>
+  </si>
+  <si>
+    <t>S1BL1</t>
+  </si>
+  <si>
+    <t>S1BL2</t>
+  </si>
+  <si>
+    <t>S1BL3</t>
+  </si>
+  <si>
+    <t>S1BL4</t>
+  </si>
+  <si>
+    <t>S1BL5</t>
+  </si>
+  <si>
+    <t>S1BL6</t>
+  </si>
+  <si>
+    <t>S1BL7</t>
+  </si>
+  <si>
+    <t>S1BL8</t>
+  </si>
+  <si>
+    <t>S1BL9</t>
+  </si>
+  <si>
+    <t>S1BL10</t>
+  </si>
+  <si>
+    <t>S1BL11</t>
+  </si>
+  <si>
+    <t>S1BL12</t>
+  </si>
+  <si>
+    <t>S1BL13</t>
+  </si>
+  <si>
+    <t>S1BL14</t>
+  </si>
+  <si>
+    <t>S1BL15</t>
+  </si>
+  <si>
+    <t>S1BL16</t>
+  </si>
+  <si>
+    <t>S1BL17</t>
+  </si>
+  <si>
+    <t>S1BL18</t>
+  </si>
+  <si>
+    <t>S1BL19</t>
+  </si>
+  <si>
+    <t>S1BL20</t>
+  </si>
+  <si>
+    <t>S1BL21</t>
+  </si>
+  <si>
+    <t>Urgente</t>
+  </si>
+  <si>
+    <t>PRIORIDADE</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>Capturar os processadores virtuais e discretizar em função do tempo via integral.</t>
+  </si>
+  <si>
+    <t>IMPORTÂNCIA</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>CUSTO</t>
+  </si>
+  <si>
+    <t>N.A.</t>
   </si>
 </sst>
 </file>
@@ -172,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,26 +360,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,326 +739,1180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308236FC-7E4A-4D2D-8D88-48637CFD2098}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="F21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="5">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="5">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="5">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="5">
+        <v>21</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="D46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>22</v>
+      <c r="F46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
